--- a/data/combined data/combined data - 1 cleaning/cleaning step 1 - leaders/leaders_toparse.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 1 - leaders/leaders_toparse.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 1 - leaders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACFC459-C288-41B4-895C-B94BB00D4E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386F1E82-173E-47F7-BC4A-147F1CE1813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5759" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5822" uniqueCount="1893">
   <si>
     <t>LeaderID</t>
   </si>
@@ -6076,7 +6090,7 @@
   <dimension ref="A1:Q669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C635" sqref="C635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23407,7 +23421,9 @@
       <c r="B607" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="C607" s="3"/>
+      <c r="C607" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D607" s="2" t="s">
         <v>380</v>
       </c>
@@ -23428,7 +23444,9 @@
       <c r="B608" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C608" s="3"/>
+      <c r="C608" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D608" s="2" t="s">
         <v>475</v>
       </c>
@@ -23461,7 +23479,9 @@
       <c r="B609" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="C609" s="3"/>
+      <c r="C609" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D609" s="2" t="s">
         <v>283</v>
       </c>
@@ -23488,7 +23508,9 @@
       <c r="B610" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="C610" s="3"/>
+      <c r="C610" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H610" s="2" t="s">
         <v>1741</v>
       </c>
@@ -23503,7 +23525,9 @@
       <c r="B611" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="C611" s="3"/>
+      <c r="C611" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D611" s="2" t="s">
         <v>94</v>
       </c>
@@ -23530,7 +23554,9 @@
       <c r="B612" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C612" s="3"/>
+      <c r="C612" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D612" s="2" t="s">
         <v>135</v>
       </c>
@@ -23560,7 +23586,9 @@
       <c r="B613" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="C613" s="3"/>
+      <c r="C613" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H613" s="2" t="s">
         <v>1749</v>
       </c>
@@ -23575,7 +23603,9 @@
       <c r="B614" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="C614" s="3"/>
+      <c r="C614" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D614" s="2" t="s">
         <v>222</v>
       </c>
@@ -23605,7 +23635,9 @@
       <c r="B615" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="C615" s="3"/>
+      <c r="C615" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D615" s="2" t="s">
         <v>135</v>
       </c>
@@ -23632,7 +23664,9 @@
       <c r="B616" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="C616" s="3"/>
+      <c r="C616" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D616" s="2" t="s">
         <v>39</v>
       </c>
@@ -23653,7 +23687,9 @@
       <c r="B617" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="C617" s="3"/>
+      <c r="C617" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H617" s="2" t="s">
         <v>1761</v>
       </c>
@@ -23668,7 +23704,9 @@
       <c r="B618" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C618" s="3"/>
+      <c r="C618" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D618" s="2" t="s">
         <v>191</v>
       </c>
@@ -23689,7 +23727,9 @@
       <c r="B619" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="C619" s="3"/>
+      <c r="C619" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D619" s="2" t="s">
         <v>734</v>
       </c>
@@ -23710,7 +23750,9 @@
       <c r="B620" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="C620" s="3"/>
+      <c r="C620" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H620" s="2" t="s">
         <v>1767</v>
       </c>
@@ -23725,7 +23767,9 @@
       <c r="B621" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C621" s="3"/>
+      <c r="C621" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H621" s="2" t="s">
         <v>1768</v>
       </c>
@@ -23740,7 +23784,9 @@
       <c r="B622" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="C622" s="3"/>
+      <c r="C622" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D622" s="2" t="s">
         <v>542</v>
       </c>
@@ -23767,7 +23813,9 @@
       <c r="B623" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="C623" s="3"/>
+      <c r="C623" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D623" s="2" t="s">
         <v>19</v>
       </c>
@@ -23794,7 +23842,9 @@
       <c r="B624" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="C624" s="3"/>
+      <c r="C624" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D624" s="2" t="s">
         <v>290</v>
       </c>
@@ -23815,7 +23865,9 @@
       <c r="B625" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="C625" s="3"/>
+      <c r="C625" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H625" s="2" t="s">
         <v>1779</v>
       </c>
@@ -23830,7 +23882,9 @@
       <c r="B626" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C626" s="3"/>
+      <c r="C626" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D626" s="2" t="s">
         <v>135</v>
       </c>
@@ -23860,7 +23914,9 @@
       <c r="B627" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="C627" s="3"/>
+      <c r="C627" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D627" s="2" t="s">
         <v>1785</v>
       </c>
@@ -23890,7 +23946,9 @@
       <c r="B628" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="C628" s="3"/>
+      <c r="C628" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H628" s="2" t="s">
         <v>1790</v>
       </c>
@@ -23905,7 +23963,9 @@
       <c r="B629" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="C629" s="3"/>
+      <c r="C629" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D629" s="2" t="s">
         <v>380</v>
       </c>
@@ -23926,7 +23986,9 @@
       <c r="B630" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="C630" s="3"/>
+      <c r="C630" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H630" s="2" t="s">
         <v>1795</v>
       </c>
@@ -23941,7 +24003,9 @@
       <c r="B631" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="C631" s="3"/>
+      <c r="C631" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H631" s="2" t="s">
         <v>1797</v>
       </c>
@@ -23956,7 +24020,9 @@
       <c r="B632" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C632" s="3"/>
+      <c r="C632" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D632" s="2" t="s">
         <v>609</v>
       </c>
@@ -23977,7 +24043,9 @@
       <c r="B633" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="C633" s="3"/>
+      <c r="C633" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D633" s="2" t="s">
         <v>165</v>
       </c>
@@ -23998,7 +24066,9 @@
       <c r="B634" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="C634" s="3"/>
+      <c r="C634" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D634" s="2" t="s">
         <v>247</v>
       </c>
@@ -24028,7 +24098,9 @@
       <c r="B635" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="C635" s="3"/>
+      <c r="C635" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D635" s="2" t="s">
         <v>380</v>
       </c>
@@ -24049,7 +24121,9 @@
       <c r="B636" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="C636" s="3"/>
+      <c r="C636" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H636" s="2" t="s">
         <v>1809</v>
       </c>
@@ -24064,7 +24138,9 @@
       <c r="B637" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C637" s="3"/>
+      <c r="C637" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D637" s="2" t="s">
         <v>406</v>
       </c>
@@ -24085,7 +24161,9 @@
       <c r="B638" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="C638" s="3"/>
+      <c r="C638" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D638" s="2" t="s">
         <v>352</v>
       </c>
@@ -24106,7 +24184,9 @@
       <c r="B639" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="C639" s="3"/>
+      <c r="C639" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D639" s="2" t="s">
         <v>643</v>
       </c>
@@ -24133,7 +24213,9 @@
       <c r="B640" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="C640" s="3"/>
+      <c r="C640" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D640" s="2" t="s">
         <v>1163</v>
       </c>
@@ -24154,7 +24236,9 @@
       <c r="B641" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="C641" s="3"/>
+      <c r="C641" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D641" s="2" t="s">
         <v>833</v>
       </c>
@@ -24184,7 +24268,9 @@
       <c r="B642" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="C642" s="3"/>
+      <c r="C642" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D642" s="2" t="s">
         <v>55</v>
       </c>
@@ -24205,7 +24291,9 @@
       <c r="B643" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C643" s="3"/>
+      <c r="C643" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D643" s="2" t="s">
         <v>19</v>
       </c>
@@ -24226,7 +24314,9 @@
       <c r="B644" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C644" s="3"/>
+      <c r="C644" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D644" s="2" t="s">
         <v>352</v>
       </c>
@@ -24247,7 +24337,9 @@
       <c r="B645" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="C645" s="3"/>
+      <c r="C645" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D645" s="2" t="s">
         <v>380</v>
       </c>
@@ -24268,7 +24360,9 @@
       <c r="B646" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="C646" s="3"/>
+      <c r="C646" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H646" s="2" t="s">
         <v>1834</v>
       </c>
@@ -24283,7 +24377,9 @@
       <c r="B647" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C647" s="3"/>
+      <c r="C647" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D647" s="2" t="s">
         <v>165</v>
       </c>
@@ -24304,7 +24400,9 @@
       <c r="B648" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C648" s="3"/>
+      <c r="C648" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D648" s="2" t="s">
         <v>135</v>
       </c>
@@ -24325,7 +24423,9 @@
       <c r="B649" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="C649" s="3"/>
+      <c r="C649" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D649" s="2" t="s">
         <v>369</v>
       </c>
@@ -24346,7 +24446,9 @@
       <c r="B650" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C650" s="3"/>
+      <c r="C650" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D650" s="2" t="s">
         <v>165</v>
       </c>
@@ -24367,7 +24469,9 @@
       <c r="B651" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="C651" s="3"/>
+      <c r="C651" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H651" s="2" t="s">
         <v>1846</v>
       </c>
@@ -24382,7 +24486,9 @@
       <c r="B652" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="C652" s="3"/>
+      <c r="C652" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D652" s="2" t="s">
         <v>86</v>
       </c>
@@ -24403,7 +24509,9 @@
       <c r="B653" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C653" s="3"/>
+      <c r="C653" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D653" s="2" t="s">
         <v>352</v>
       </c>
@@ -24424,7 +24532,9 @@
       <c r="B654" s="2" t="s">
         <v>1852</v>
       </c>
-      <c r="C654" s="3"/>
+      <c r="C654" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D654" s="2" t="s">
         <v>178</v>
       </c>
@@ -24445,7 +24555,9 @@
       <c r="B655" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="C655" s="3"/>
+      <c r="C655" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D655" s="2" t="s">
         <v>352</v>
       </c>
@@ -24466,7 +24578,9 @@
       <c r="B656" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="C656" s="3"/>
+      <c r="C656" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D656" s="2" t="s">
         <v>145</v>
       </c>
@@ -24487,7 +24601,9 @@
       <c r="B657" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="C657" s="3"/>
+      <c r="C657" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D657" s="2" t="s">
         <v>643</v>
       </c>
@@ -24508,7 +24624,9 @@
       <c r="B658" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C658" s="3"/>
+      <c r="C658" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D658" s="2" t="s">
         <v>609</v>
       </c>
@@ -24529,7 +24647,9 @@
       <c r="B659" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="C659" s="3"/>
+      <c r="C659" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D659" s="2" t="s">
         <v>352</v>
       </c>
@@ -24550,7 +24670,9 @@
       <c r="B660" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="C660" s="3"/>
+      <c r="C660" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D660" s="2" t="s">
         <v>406</v>
       </c>
@@ -24571,7 +24693,9 @@
       <c r="B661" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="C661" s="3"/>
+      <c r="C661" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D661" s="2" t="s">
         <v>609</v>
       </c>
@@ -24592,7 +24716,9 @@
       <c r="B662" s="2" t="s">
         <v>1871</v>
       </c>
-      <c r="C662" s="3"/>
+      <c r="C662" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D662" s="2" t="s">
         <v>94</v>
       </c>
@@ -24613,7 +24739,9 @@
       <c r="B663" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="C663" s="3"/>
+      <c r="C663" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D663" s="2" t="s">
         <v>406</v>
       </c>
@@ -24640,7 +24768,9 @@
       <c r="B664" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="C664" s="3"/>
+      <c r="C664" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D664" s="2" t="s">
         <v>674</v>
       </c>
@@ -24667,7 +24797,9 @@
       <c r="B665" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="C665" s="3"/>
+      <c r="C665" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D665" s="2" t="s">
         <v>150</v>
       </c>
@@ -24688,7 +24820,9 @@
       <c r="B666" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="C666" s="3"/>
+      <c r="C666" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D666" s="2" t="s">
         <v>406</v>
       </c>
@@ -24709,7 +24843,9 @@
       <c r="B667" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C667" s="3"/>
+      <c r="C667" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D667" s="2" t="s">
         <v>165</v>
       </c>
@@ -24739,7 +24875,9 @@
       <c r="B668" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="C668" s="3"/>
+      <c r="C668" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H668" s="2" t="s">
         <v>1889</v>
       </c>
@@ -24754,7 +24892,9 @@
       <c r="B669" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="C669" s="3"/>
+      <c r="C669" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D669" s="2" t="s">
         <v>135</v>
       </c>
@@ -24771,4 +24911,18 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23CF10-ACB9-4A3C-96D5-11502F616F49}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>